--- a/src/zika_compilation/zika_db2_params_fixing.xlsx
+++ b/src/zika_compilation/zika_db2_params_fixing.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\Zika\priority-pathogens\src\zika_compilation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8CD7C31-9FFD-4444-A33C-16723CBEEFB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B57A5EF9-77A9-47D4-974C-2DBE76F95C7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{5B14F3B3-1480-4575-AC9F-CBEEAD2EB803}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{5B14F3B3-1480-4575-AC9F-CBEEAD2EB803}"/>
   </bookViews>
   <sheets>
     <sheet name="params_fixing" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7215" uniqueCount="424">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7229" uniqueCount="421">
   <si>
     <t>fixed</t>
   </si>
@@ -845,12 +845,6 @@
     <t>cebe7e828509e359f67dc685841166ed</t>
   </si>
   <si>
-    <t>Shape</t>
-  </si>
-  <si>
-    <t>Scale</t>
-  </si>
-  <si>
     <t>Weibull</t>
   </si>
   <si>
@@ -860,9 +854,6 @@
     <t>United States</t>
   </si>
   <si>
-    <t>All Travellers</t>
-  </si>
-  <si>
     <t>Clinically diagnosed/symptomatic;Confirmed</t>
   </si>
   <si>
@@ -872,9 +863,6 @@
     <t>2071c3c51c1cdf44f2da2b52e1123ec4</t>
   </si>
   <si>
-    <t>Travelers &lt;2 weeks</t>
-  </si>
-  <si>
     <t>Clinically diagnosed/symptomatic;Lab confirmed</t>
   </si>
   <si>
@@ -1106,9 +1094,6 @@
     <t>b2bc871fa5c5b7f8b05c8840d5fab377</t>
   </si>
   <si>
-    <t>IQR (paired or unpaired)</t>
-  </si>
-  <si>
     <t>Next generation matrix</t>
   </si>
   <si>
@@ -1311,6 +1296,12 @@
   </si>
   <si>
     <t>Jul</t>
+  </si>
+  <si>
+    <t>Travellers &lt;2 weeks travel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">All Travellers </t>
   </si>
 </sst>
 </file>
@@ -1476,7 +1467,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1656,6 +1647,12 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="10">
     <border>
@@ -1817,7 +1814,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1838,6 +1835,12 @@
       <alignment readingOrder="1"/>
     </xf>
     <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="16" fontId="0" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -2215,10 +2218,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A31A6441-CD99-4B4F-BB66-1A1D2FE3CA96}">
   <dimension ref="A1:CP104"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BH1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A80" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="BJ1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A40" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="BQ1" sqref="BQ1"/>
-      <selection pane="bottomLeft" activeCell="BU1" sqref="BU1:BU1048576"/>
+      <selection pane="bottomLeft" activeCell="BO49" sqref="BO49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2723,7 +2726,7 @@
         <v>16</v>
       </c>
       <c r="BQ2" s="11" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="BR2">
         <v>2016</v>
@@ -2732,7 +2735,7 @@
         <v>27</v>
       </c>
       <c r="BT2" s="1" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="BU2">
         <v>2016</v>
@@ -3007,7 +3010,7 @@
         <v>16</v>
       </c>
       <c r="BQ3" s="11" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="BR3">
         <v>2016</v>
@@ -3016,7 +3019,7 @@
         <v>27</v>
       </c>
       <c r="BT3" s="1" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="BU3">
         <v>2016</v>
@@ -3291,7 +3294,7 @@
         <v>16</v>
       </c>
       <c r="BQ4" s="11" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="BR4">
         <v>2016</v>
@@ -3300,7 +3303,7 @@
         <v>27</v>
       </c>
       <c r="BT4" s="1" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="BU4">
         <v>2016</v>
@@ -3575,7 +3578,7 @@
         <v>16</v>
       </c>
       <c r="BQ5" s="11" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="BR5">
         <v>2016</v>
@@ -3584,7 +3587,7 @@
         <v>27</v>
       </c>
       <c r="BT5" s="1" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="BU5">
         <v>2016</v>
@@ -3859,7 +3862,7 @@
         <v>16</v>
       </c>
       <c r="BQ6" s="11" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="BR6">
         <v>2016</v>
@@ -3868,7 +3871,7 @@
         <v>27</v>
       </c>
       <c r="BT6" s="1" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="BU6">
         <v>2016</v>
@@ -4143,7 +4146,7 @@
         <v>16</v>
       </c>
       <c r="BQ7" s="11" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="BR7">
         <v>2016</v>
@@ -4152,7 +4155,7 @@
         <v>27</v>
       </c>
       <c r="BT7" s="1" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="BU7">
         <v>2016</v>
@@ -4427,7 +4430,7 @@
         <v>16</v>
       </c>
       <c r="BQ8" s="11" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="BR8">
         <v>2016</v>
@@ -4436,7 +4439,7 @@
         <v>27</v>
       </c>
       <c r="BT8" s="1" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="BU8">
         <v>2016</v>
@@ -4711,7 +4714,7 @@
         <v>16</v>
       </c>
       <c r="BQ9" s="11" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="BR9">
         <v>2016</v>
@@ -4720,7 +4723,7 @@
         <v>27</v>
       </c>
       <c r="BT9" s="1" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="BU9">
         <v>2016</v>
@@ -4995,7 +4998,7 @@
         <v>16</v>
       </c>
       <c r="BQ10" s="11" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="BR10">
         <v>2016</v>
@@ -5004,7 +5007,7 @@
         <v>27</v>
       </c>
       <c r="BT10" s="1" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="BU10">
         <v>2016</v>
@@ -5279,7 +5282,7 @@
         <v>1</v>
       </c>
       <c r="BQ11" s="11" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="BR11">
         <v>2015</v>
@@ -5288,7 +5291,7 @@
         <v>30</v>
       </c>
       <c r="BT11" s="1" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="BU11">
         <v>2017</v>
@@ -5563,7 +5566,7 @@
         <v>1</v>
       </c>
       <c r="BQ12" s="11" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="BR12">
         <v>2015</v>
@@ -5572,7 +5575,7 @@
         <v>30</v>
       </c>
       <c r="BT12" s="1" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="BU12">
         <v>2017</v>
@@ -5847,7 +5850,7 @@
         <v>1</v>
       </c>
       <c r="BQ13" s="11" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="BR13">
         <v>2015</v>
@@ -5856,7 +5859,7 @@
         <v>30</v>
       </c>
       <c r="BT13" s="1" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="BU13">
         <v>2017</v>
@@ -6131,7 +6134,7 @@
         <v>1</v>
       </c>
       <c r="BQ14" s="11" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="BR14">
         <v>2015</v>
@@ -6140,7 +6143,7 @@
         <v>30</v>
       </c>
       <c r="BT14" s="1" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="BU14">
         <v>2017</v>
@@ -6424,7 +6427,7 @@
         <v>30</v>
       </c>
       <c r="BT15" s="1" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="BU15">
         <v>2017</v>
@@ -6699,7 +6702,7 @@
         <v>5</v>
       </c>
       <c r="BQ16" s="11" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="BR16">
         <v>2015</v>
@@ -6708,7 +6711,7 @@
         <v>29</v>
       </c>
       <c r="BT16" s="1" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="BU16">
         <v>2016</v>
@@ -6983,7 +6986,7 @@
         <v>5</v>
       </c>
       <c r="BQ17" s="11" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="BR17">
         <v>2015</v>
@@ -6992,7 +6995,7 @@
         <v>29</v>
       </c>
       <c r="BT17" s="1" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="BU17">
         <v>2016</v>
@@ -7551,7 +7554,7 @@
         <v>5</v>
       </c>
       <c r="BQ19" s="11" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="BR19">
         <v>2015</v>
@@ -7560,7 +7563,7 @@
         <v>29</v>
       </c>
       <c r="BT19" s="9" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="BU19">
         <v>2016</v>
@@ -7844,7 +7847,7 @@
         <v>6</v>
       </c>
       <c r="BT20" s="4" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="BU20" s="3">
         <v>2016</v>
@@ -8403,7 +8406,7 @@
         <v>15</v>
       </c>
       <c r="BQ22" s="13" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="BR22" s="5">
         <v>2015</v>
@@ -8412,7 +8415,7 @@
         <v>11</v>
       </c>
       <c r="BT22" s="6" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="BU22" s="5">
         <v>2016</v>
@@ -8687,7 +8690,7 @@
         <v>15</v>
       </c>
       <c r="BQ23" s="13" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="BR23" s="5">
         <v>2015</v>
@@ -8696,7 +8699,7 @@
         <v>11</v>
       </c>
       <c r="BT23" s="6" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="BU23" s="5">
         <v>2016</v>
@@ -9539,7 +9542,7 @@
         <v>25</v>
       </c>
       <c r="BQ26" s="11" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="BR26">
         <v>2015</v>
@@ -9548,7 +9551,7 @@
         <v>28</v>
       </c>
       <c r="BT26" s="1" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="BU26">
         <v>2016</v>
@@ -9823,7 +9826,7 @@
         <v>25</v>
       </c>
       <c r="BQ27" s="11" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="BR27">
         <v>2015</v>
@@ -9832,7 +9835,7 @@
         <v>28</v>
       </c>
       <c r="BT27" s="1" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="BU27">
         <v>2016</v>
@@ -10107,7 +10110,7 @@
         <v>25</v>
       </c>
       <c r="BQ28" s="11" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="BR28">
         <v>2015</v>
@@ -10116,7 +10119,7 @@
         <v>28</v>
       </c>
       <c r="BT28" s="1" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="BU28">
         <v>2016</v>
@@ -10391,7 +10394,7 @@
         <v>97</v>
       </c>
       <c r="BQ29" s="11" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="BR29">
         <v>2015</v>
@@ -10400,7 +10403,7 @@
         <v>28</v>
       </c>
       <c r="BT29" s="1" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="BU29">
         <v>2016</v>
@@ -11243,7 +11246,7 @@
         <v>97</v>
       </c>
       <c r="BQ32" s="11" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="BR32">
         <v>2017</v>
@@ -11252,7 +11255,7 @@
         <v>97</v>
       </c>
       <c r="BT32" s="1" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="BU32">
         <v>2017</v>
@@ -11527,7 +11530,7 @@
         <v>97</v>
       </c>
       <c r="BQ33" s="11" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="BR33">
         <v>2017</v>
@@ -11536,7 +11539,7 @@
         <v>97</v>
       </c>
       <c r="BT33" s="1" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="BU33">
         <v>2017</v>
@@ -11811,7 +11814,7 @@
         <v>97</v>
       </c>
       <c r="BQ34" s="11" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="BR34">
         <v>2017</v>
@@ -11820,7 +11823,7 @@
         <v>97</v>
       </c>
       <c r="BT34" s="1" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="BU34">
         <v>2017</v>
@@ -12095,7 +12098,7 @@
         <v>97</v>
       </c>
       <c r="BQ35" s="11" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="BR35">
         <v>2017</v>
@@ -12104,7 +12107,7 @@
         <v>97</v>
       </c>
       <c r="BT35" s="1" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="BU35">
         <v>2017</v>
@@ -12379,7 +12382,7 @@
         <v>97</v>
       </c>
       <c r="BQ36" s="11" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="BR36">
         <v>2017</v>
@@ -12388,7 +12391,7 @@
         <v>97</v>
       </c>
       <c r="BT36" s="1" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="BU36">
         <v>2017</v>
@@ -12663,7 +12666,7 @@
         <v>97</v>
       </c>
       <c r="BQ37" s="11" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="BR37">
         <v>2017</v>
@@ -12672,7 +12675,7 @@
         <v>97</v>
       </c>
       <c r="BT37" s="1" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="BU37">
         <v>2017</v>
@@ -12760,11 +12763,11 @@
       <c r="F38" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="G38" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="H38" s="3">
+      <c r="G38" s="3">
         <v>94</v>
+      </c>
+      <c r="H38" t="s">
+        <v>97</v>
       </c>
       <c r="I38" s="3">
         <v>0</v>
@@ -12947,7 +12950,7 @@
         <v>11</v>
       </c>
       <c r="BQ38" s="12" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="BR38" s="3">
         <v>2013</v>
@@ -12956,7 +12959,7 @@
         <v>28</v>
       </c>
       <c r="BT38" s="4" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="BU38" s="3">
         <v>2014</v>
@@ -13231,7 +13234,7 @@
         <v>11</v>
       </c>
       <c r="BQ39" s="12" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="BR39" s="3">
         <v>2013</v>
@@ -13240,7 +13243,7 @@
         <v>28</v>
       </c>
       <c r="BT39" s="4" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="BU39" s="3">
         <v>2014</v>
@@ -13515,7 +13518,7 @@
         <v>11</v>
       </c>
       <c r="BQ40" s="12" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="BR40" s="3">
         <v>2013</v>
@@ -13524,7 +13527,7 @@
         <v>28</v>
       </c>
       <c r="BT40" s="4" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="BU40" s="3">
         <v>2014</v>
@@ -13799,7 +13802,7 @@
         <v>11</v>
       </c>
       <c r="BQ41" s="12" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="BR41" s="3">
         <v>2013</v>
@@ -13808,7 +13811,7 @@
         <v>28</v>
       </c>
       <c r="BT41" s="4" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="BU41" s="3">
         <v>2014</v>
@@ -14083,7 +14086,7 @@
         <v>11</v>
       </c>
       <c r="BQ42" s="12" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="BR42" s="3">
         <v>2013</v>
@@ -14092,7 +14095,7 @@
         <v>28</v>
       </c>
       <c r="BT42" s="4" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="BU42" s="3">
         <v>2014</v>
@@ -14367,7 +14370,7 @@
         <v>11</v>
       </c>
       <c r="BQ43" s="12" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="BR43" s="3">
         <v>2013</v>
@@ -14376,7 +14379,7 @@
         <v>28</v>
       </c>
       <c r="BT43" s="4" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="BU43" s="3">
         <v>2014</v>
@@ -14651,7 +14654,7 @@
         <v>11</v>
       </c>
       <c r="BQ44" s="12" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="BR44" s="3">
         <v>2013</v>
@@ -14660,7 +14663,7 @@
         <v>28</v>
       </c>
       <c r="BT44" s="4" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="BU44" s="3">
         <v>2014</v>
@@ -15219,7 +15222,7 @@
         <v>11</v>
       </c>
       <c r="BQ46" s="12" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="BR46" s="3">
         <v>2013</v>
@@ -15228,7 +15231,7 @@
         <v>28</v>
       </c>
       <c r="BT46" s="4" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="BU46" s="3">
         <v>2014</v>
@@ -15581,571 +15584,571 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:94" x14ac:dyDescent="0.3">
-      <c r="A48">
+    <row r="48" spans="1:94" s="16" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="16">
         <v>1</v>
       </c>
-      <c r="B48">
+      <c r="B48" s="16">
         <v>2362</v>
       </c>
-      <c r="C48" t="s">
+      <c r="C48" s="16" t="s">
         <v>94</v>
       </c>
-      <c r="D48" t="s">
+      <c r="D48" s="16" t="s">
         <v>267</v>
       </c>
-      <c r="E48">
+      <c r="E48" s="16">
         <v>2</v>
       </c>
-      <c r="F48" t="s">
+      <c r="F48" s="16" t="s">
         <v>150</v>
       </c>
-      <c r="G48">
-        <v>2.39</v>
-      </c>
-      <c r="H48">
-        <v>7.19</v>
-      </c>
-      <c r="I48">
-        <v>0</v>
-      </c>
-      <c r="J48">
-        <v>0</v>
-      </c>
-      <c r="K48" t="s">
-        <v>159</v>
-      </c>
-      <c r="L48" t="s">
-        <v>159</v>
-      </c>
-      <c r="M48" t="s">
-        <v>97</v>
-      </c>
-      <c r="N48" t="s">
-        <v>97</v>
-      </c>
-      <c r="O48" t="s">
-        <v>97</v>
-      </c>
-      <c r="P48" t="s">
-        <v>97</v>
-      </c>
-      <c r="Q48" t="s">
+      <c r="G48" s="16">
+        <v>6.4</v>
+      </c>
+      <c r="H48" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="I48" s="16">
+        <v>0</v>
+      </c>
+      <c r="J48" s="16">
+        <v>0</v>
+      </c>
+      <c r="K48" s="16" t="s">
+        <v>147</v>
+      </c>
+      <c r="L48" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="M48" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="N48" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="O48" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="P48" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q48" s="16" t="s">
+        <v>156</v>
+      </c>
+      <c r="R48" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="S48" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="T48" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="U48" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="V48" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="W48" s="16">
+        <v>5.7</v>
+      </c>
+      <c r="X48" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="Y48" s="16">
+        <v>7</v>
+      </c>
+      <c r="Z48" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="AA48" s="16" t="s">
+        <v>148</v>
+      </c>
+      <c r="AB48" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="AC48" s="16" t="s">
+        <v>134</v>
+      </c>
+      <c r="AD48" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="AE48" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="AF48" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="AG48" s="3" t="s">
         <v>268</v>
       </c>
-      <c r="R48" t="s">
+      <c r="AH48" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="AI48" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="AJ48" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="AK48" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="AL48" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="AM48" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AN48" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AO48" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="AP48" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="AQ48" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="AR48" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="AS48" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT48" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AU48" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="AV48" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="AW48" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="AX48" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="AY48" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="AZ48" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="BA48" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="BB48" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="BC48" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="BD48" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="BE48" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="BF48" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="BG48" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="BH48" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="BI48" s="16" t="s">
         <v>269</v>
       </c>
-      <c r="S48" t="s">
-        <v>97</v>
-      </c>
-      <c r="T48" t="s">
-        <v>97</v>
-      </c>
-      <c r="U48" t="s">
-        <v>97</v>
-      </c>
-      <c r="V48" t="s">
-        <v>97</v>
-      </c>
-      <c r="W48">
-        <v>1.89</v>
-      </c>
-      <c r="X48">
-        <v>6.48</v>
-      </c>
-      <c r="Y48">
-        <v>2.88</v>
-      </c>
-      <c r="Z48">
-        <v>7.91</v>
-      </c>
-      <c r="AA48" t="s">
+      <c r="BJ48" s="16" t="s">
+        <v>161</v>
+      </c>
+      <c r="BK48" s="16">
+        <v>1</v>
+      </c>
+      <c r="BL48" s="16">
+        <v>81</v>
+      </c>
+      <c r="BM48" s="16">
+        <v>197</v>
+      </c>
+      <c r="BN48" s="16" t="s">
+        <v>270</v>
+      </c>
+      <c r="BO48" s="16" t="s">
+        <v>420</v>
+      </c>
+      <c r="BP48" s="16">
+        <v>1</v>
+      </c>
+      <c r="BQ48" s="17" t="s">
+        <v>408</v>
+      </c>
+      <c r="BR48" s="16">
+        <v>2015</v>
+      </c>
+      <c r="BS48" s="16">
+        <v>23</v>
+      </c>
+      <c r="BT48" s="18" t="s">
+        <v>414</v>
+      </c>
+      <c r="BU48" s="16">
+        <v>2016</v>
+      </c>
+      <c r="BV48" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="BW48" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="BX48" s="16" t="s">
+        <v>108</v>
+      </c>
+      <c r="BY48" s="16" t="s">
+        <v>108</v>
+      </c>
+      <c r="BZ48" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="CA48" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="CB48" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="CC48" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="CD48" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="CE48" s="16" t="s">
+        <v>271</v>
+      </c>
+      <c r="CF48" s="16" t="s">
+        <v>136</v>
+      </c>
+      <c r="CG48" s="16" t="s">
+        <v>110</v>
+      </c>
+      <c r="CH48" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="CI48" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="CJ48" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="CK48" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="CL48" s="16">
+        <v>11</v>
+      </c>
+      <c r="CM48" s="16" t="s">
+        <v>272</v>
+      </c>
+      <c r="CN48" s="16" t="s">
+        <v>112</v>
+      </c>
+      <c r="CO48" s="16">
+        <v>1</v>
+      </c>
+      <c r="CP48" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:94" s="16" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="16">
+        <v>1</v>
+      </c>
+      <c r="B49" s="16">
+        <v>2362</v>
+      </c>
+      <c r="C49" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="D49" s="16" t="s">
+        <v>273</v>
+      </c>
+      <c r="E49" s="16">
+        <v>2</v>
+      </c>
+      <c r="F49" s="16" t="s">
+        <v>150</v>
+      </c>
+      <c r="G49" s="16">
+        <v>6</v>
+      </c>
+      <c r="H49" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="I49" s="16">
+        <v>0</v>
+      </c>
+      <c r="J49" s="16">
+        <v>0</v>
+      </c>
+      <c r="K49" s="16" t="s">
+        <v>147</v>
+      </c>
+      <c r="L49" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="M49" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="N49" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="O49" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="P49" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q49" s="16" t="s">
+        <v>156</v>
+      </c>
+      <c r="R49" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="S49" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="T49" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="U49" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="V49" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="W49" s="16">
+        <v>5.2</v>
+      </c>
+      <c r="X49" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="Y49" s="16">
+        <v>6.8</v>
+      </c>
+      <c r="Z49" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="AA49" s="16" t="s">
         <v>148</v>
       </c>
-      <c r="AB48" t="s">
-        <v>148</v>
-      </c>
-      <c r="AC48" t="s">
+      <c r="AB49" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="AC49" s="16" t="s">
         <v>134</v>
       </c>
-      <c r="AD48" t="s">
-        <v>134</v>
-      </c>
-      <c r="AE48" t="s">
-        <v>97</v>
-      </c>
-      <c r="AF48" t="s">
-        <v>97</v>
-      </c>
-      <c r="AG48" t="s">
+      <c r="AD49" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="AE49" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="AF49" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="AG49" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="AH49" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="AI49" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="AJ49" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="AK49" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="AL49" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="AM49" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AN49" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AO49" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="AP49" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="AQ49" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="AR49" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="AS49" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT49" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AU49" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="AV49" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="AW49" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="AX49" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="AY49" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="AZ49" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="BA49" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="BB49" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="BC49" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="BD49" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="BE49" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="BF49" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="BG49" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="BH49" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="BI49" s="16" t="s">
+        <v>269</v>
+      </c>
+      <c r="BJ49" s="16" t="s">
+        <v>161</v>
+      </c>
+      <c r="BK49" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="BL49" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="BM49" s="16">
+        <v>79</v>
+      </c>
+      <c r="BN49" s="16" t="s">
         <v>270</v>
       </c>
-      <c r="AH48" t="s">
-        <v>270</v>
-      </c>
-      <c r="AI48" t="s">
-        <v>97</v>
-      </c>
-      <c r="AJ48" t="s">
-        <v>97</v>
-      </c>
-      <c r="AK48" t="s">
-        <v>97</v>
-      </c>
-      <c r="AL48" t="s">
-        <v>97</v>
-      </c>
-      <c r="AM48" t="b">
-        <v>0</v>
-      </c>
-      <c r="AN48" t="b">
-        <v>0</v>
-      </c>
-      <c r="AO48" t="s">
-        <v>97</v>
-      </c>
-      <c r="AP48" t="s">
-        <v>97</v>
-      </c>
-      <c r="AQ48" t="s">
-        <v>97</v>
-      </c>
-      <c r="AR48" t="s">
-        <v>97</v>
-      </c>
-      <c r="AS48" t="b">
-        <v>0</v>
-      </c>
-      <c r="AT48" t="b">
-        <v>0</v>
-      </c>
-      <c r="AU48" t="b">
+      <c r="BO49" s="16" t="s">
+        <v>419</v>
+      </c>
+      <c r="BP49" s="16">
         <v>1</v>
       </c>
-      <c r="AV48" t="b">
+      <c r="BQ49" s="17" t="s">
+        <v>408</v>
+      </c>
+      <c r="BR49" s="16">
+        <v>2015</v>
+      </c>
+      <c r="BS49" s="16">
+        <v>23</v>
+      </c>
+      <c r="BT49" s="18" t="s">
+        <v>414</v>
+      </c>
+      <c r="BU49" s="16">
+        <v>2016</v>
+      </c>
+      <c r="BV49" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="BW49" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="BX49" s="16" t="s">
+        <v>108</v>
+      </c>
+      <c r="BY49" s="16" t="s">
+        <v>108</v>
+      </c>
+      <c r="BZ49" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="CA49" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="CB49" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="CC49" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="CD49" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="CE49" s="16" t="s">
+        <v>274</v>
+      </c>
+      <c r="CF49" s="16" t="s">
+        <v>136</v>
+      </c>
+      <c r="CG49" s="16" t="s">
+        <v>110</v>
+      </c>
+      <c r="CH49" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="CI49" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="CJ49" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="CK49" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="CL49" s="16">
+        <v>12</v>
+      </c>
+      <c r="CM49" s="16" t="s">
+        <v>272</v>
+      </c>
+      <c r="CN49" s="16" t="s">
+        <v>112</v>
+      </c>
+      <c r="CO49" s="16">
         <v>1</v>
       </c>
-      <c r="AW48" t="s">
-        <v>97</v>
-      </c>
-      <c r="AX48" t="s">
-        <v>97</v>
-      </c>
-      <c r="AY48" t="s">
-        <v>97</v>
-      </c>
-      <c r="AZ48" t="s">
-        <v>97</v>
-      </c>
-      <c r="BA48" t="b">
-        <v>0</v>
-      </c>
-      <c r="BB48" t="b">
-        <v>0</v>
-      </c>
-      <c r="BC48" t="s">
-        <v>97</v>
-      </c>
-      <c r="BD48" t="s">
-        <v>97</v>
-      </c>
-      <c r="BE48" t="s">
-        <v>97</v>
-      </c>
-      <c r="BF48" t="s">
-        <v>97</v>
-      </c>
-      <c r="BG48" t="s">
-        <v>97</v>
-      </c>
-      <c r="BH48" t="s">
-        <v>103</v>
-      </c>
-      <c r="BI48" t="s">
-        <v>271</v>
-      </c>
-      <c r="BJ48" t="s">
-        <v>161</v>
-      </c>
-      <c r="BK48">
-        <v>1</v>
-      </c>
-      <c r="BL48">
-        <v>81</v>
-      </c>
-      <c r="BM48">
-        <v>197</v>
-      </c>
-      <c r="BN48" t="s">
-        <v>272</v>
-      </c>
-      <c r="BO48" t="s">
-        <v>273</v>
-      </c>
-      <c r="BP48">
-        <v>1</v>
-      </c>
-      <c r="BQ48" s="11" t="s">
-        <v>413</v>
-      </c>
-      <c r="BR48">
-        <v>2015</v>
-      </c>
-      <c r="BS48">
-        <v>23</v>
-      </c>
-      <c r="BT48" s="1" t="s">
-        <v>419</v>
-      </c>
-      <c r="BU48">
-        <v>2016</v>
-      </c>
-      <c r="BV48" t="s">
-        <v>97</v>
-      </c>
-      <c r="BW48" t="b">
-        <v>0</v>
-      </c>
-      <c r="BX48" t="s">
-        <v>108</v>
-      </c>
-      <c r="BY48" t="s">
-        <v>108</v>
-      </c>
-      <c r="BZ48" t="b">
-        <v>0</v>
-      </c>
-      <c r="CA48" t="b">
-        <v>0</v>
-      </c>
-      <c r="CB48" t="b">
-        <v>0</v>
-      </c>
-      <c r="CC48" t="s">
-        <v>97</v>
-      </c>
-      <c r="CD48" t="s">
-        <v>97</v>
-      </c>
-      <c r="CE48" t="s">
-        <v>274</v>
-      </c>
-      <c r="CF48" t="s">
-        <v>136</v>
-      </c>
-      <c r="CG48" t="s">
-        <v>110</v>
-      </c>
-      <c r="CH48" t="b">
-        <v>0</v>
-      </c>
-      <c r="CI48" t="s">
-        <v>97</v>
-      </c>
-      <c r="CJ48" t="s">
-        <v>97</v>
-      </c>
-      <c r="CK48" t="s">
-        <v>97</v>
-      </c>
-      <c r="CL48">
-        <v>11</v>
-      </c>
-      <c r="CM48" t="s">
-        <v>275</v>
-      </c>
-      <c r="CN48" t="s">
-        <v>112</v>
-      </c>
-      <c r="CO48">
-        <v>1</v>
-      </c>
-      <c r="CP48">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:94" x14ac:dyDescent="0.3">
-      <c r="A49">
-        <v>1</v>
-      </c>
-      <c r="B49">
-        <v>2362</v>
-      </c>
-      <c r="C49" t="s">
-        <v>94</v>
-      </c>
-      <c r="D49" t="s">
-        <v>276</v>
-      </c>
-      <c r="E49">
-        <v>2</v>
-      </c>
-      <c r="F49" t="s">
-        <v>150</v>
-      </c>
-      <c r="G49">
-        <v>2.69</v>
-      </c>
-      <c r="H49">
-        <v>6.7</v>
-      </c>
-      <c r="I49">
-        <v>0</v>
-      </c>
-      <c r="J49">
-        <v>0</v>
-      </c>
-      <c r="K49" t="s">
-        <v>159</v>
-      </c>
-      <c r="L49" t="s">
-        <v>159</v>
-      </c>
-      <c r="M49" t="s">
-        <v>97</v>
-      </c>
-      <c r="N49" t="s">
-        <v>97</v>
-      </c>
-      <c r="O49" t="s">
-        <v>97</v>
-      </c>
-      <c r="P49" t="s">
-        <v>97</v>
-      </c>
-      <c r="Q49" t="s">
-        <v>268</v>
-      </c>
-      <c r="R49" t="s">
-        <v>269</v>
-      </c>
-      <c r="S49" t="s">
-        <v>97</v>
-      </c>
-      <c r="T49" t="s">
-        <v>97</v>
-      </c>
-      <c r="U49" t="s">
-        <v>97</v>
-      </c>
-      <c r="V49" t="s">
-        <v>97</v>
-      </c>
-      <c r="W49">
-        <v>1.83</v>
-      </c>
-      <c r="X49">
-        <v>5.88</v>
-      </c>
-      <c r="Y49">
-        <v>3.55</v>
-      </c>
-      <c r="Z49">
-        <v>7.52</v>
-      </c>
-      <c r="AA49" t="s">
-        <v>148</v>
-      </c>
-      <c r="AB49" t="s">
-        <v>148</v>
-      </c>
-      <c r="AC49" t="s">
-        <v>134</v>
-      </c>
-      <c r="AD49" t="s">
-        <v>134</v>
-      </c>
-      <c r="AE49" t="s">
-        <v>97</v>
-      </c>
-      <c r="AF49" t="s">
-        <v>97</v>
-      </c>
-      <c r="AG49" t="s">
-        <v>270</v>
-      </c>
-      <c r="AH49" t="s">
-        <v>270</v>
-      </c>
-      <c r="AI49" t="s">
-        <v>97</v>
-      </c>
-      <c r="AJ49" t="s">
-        <v>97</v>
-      </c>
-      <c r="AK49" t="s">
-        <v>97</v>
-      </c>
-      <c r="AL49" t="s">
-        <v>97</v>
-      </c>
-      <c r="AM49" t="b">
-        <v>0</v>
-      </c>
-      <c r="AN49" t="b">
-        <v>0</v>
-      </c>
-      <c r="AO49" t="s">
-        <v>97</v>
-      </c>
-      <c r="AP49" t="s">
-        <v>97</v>
-      </c>
-      <c r="AQ49" t="s">
-        <v>97</v>
-      </c>
-      <c r="AR49" t="s">
-        <v>97</v>
-      </c>
-      <c r="AS49" t="b">
-        <v>0</v>
-      </c>
-      <c r="AT49" t="b">
-        <v>0</v>
-      </c>
-      <c r="AU49" t="b">
-        <v>1</v>
-      </c>
-      <c r="AV49" t="b">
-        <v>1</v>
-      </c>
-      <c r="AW49" t="s">
-        <v>97</v>
-      </c>
-      <c r="AX49" t="s">
-        <v>97</v>
-      </c>
-      <c r="AY49" t="s">
-        <v>97</v>
-      </c>
-      <c r="AZ49" t="s">
-        <v>97</v>
-      </c>
-      <c r="BA49" t="b">
-        <v>0</v>
-      </c>
-      <c r="BB49" t="b">
-        <v>0</v>
-      </c>
-      <c r="BC49" t="s">
-        <v>97</v>
-      </c>
-      <c r="BD49" t="s">
-        <v>97</v>
-      </c>
-      <c r="BE49" t="s">
-        <v>97</v>
-      </c>
-      <c r="BF49" t="s">
-        <v>97</v>
-      </c>
-      <c r="BG49" t="s">
-        <v>97</v>
-      </c>
-      <c r="BH49" t="s">
-        <v>103</v>
-      </c>
-      <c r="BI49" t="s">
-        <v>271</v>
-      </c>
-      <c r="BJ49" t="s">
-        <v>161</v>
-      </c>
-      <c r="BK49" t="s">
-        <v>97</v>
-      </c>
-      <c r="BL49" t="s">
-        <v>97</v>
-      </c>
-      <c r="BM49">
-        <v>79</v>
-      </c>
-      <c r="BN49" t="s">
-        <v>272</v>
-      </c>
-      <c r="BO49" t="s">
-        <v>277</v>
-      </c>
-      <c r="BP49">
-        <v>1</v>
-      </c>
-      <c r="BQ49" s="11" t="s">
-        <v>413</v>
-      </c>
-      <c r="BR49">
-        <v>2015</v>
-      </c>
-      <c r="BS49">
-        <v>23</v>
-      </c>
-      <c r="BT49" s="1" t="s">
-        <v>419</v>
-      </c>
-      <c r="BU49">
-        <v>2016</v>
-      </c>
-      <c r="BV49" t="s">
-        <v>97</v>
-      </c>
-      <c r="BW49" t="b">
-        <v>0</v>
-      </c>
-      <c r="BX49" t="s">
-        <v>108</v>
-      </c>
-      <c r="BY49" t="s">
-        <v>108</v>
-      </c>
-      <c r="BZ49" t="b">
-        <v>0</v>
-      </c>
-      <c r="CA49" t="b">
-        <v>0</v>
-      </c>
-      <c r="CB49" t="b">
-        <v>0</v>
-      </c>
-      <c r="CC49" t="s">
-        <v>97</v>
-      </c>
-      <c r="CD49" t="s">
-        <v>97</v>
-      </c>
-      <c r="CE49" t="s">
-        <v>278</v>
-      </c>
-      <c r="CF49" t="s">
-        <v>136</v>
-      </c>
-      <c r="CG49" t="s">
-        <v>110</v>
-      </c>
-      <c r="CH49" t="b">
-        <v>0</v>
-      </c>
-      <c r="CI49" t="s">
-        <v>97</v>
-      </c>
-      <c r="CJ49" t="s">
-        <v>97</v>
-      </c>
-      <c r="CK49" t="s">
-        <v>97</v>
-      </c>
-      <c r="CL49">
-        <v>12</v>
-      </c>
-      <c r="CM49" t="s">
-        <v>275</v>
-      </c>
-      <c r="CN49" t="s">
-        <v>112</v>
-      </c>
-      <c r="CO49">
-        <v>1</v>
-      </c>
-      <c r="CP49">
+      <c r="CP49" s="16">
         <v>0</v>
       </c>
     </row>
@@ -16160,7 +16163,7 @@
         <v>129</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="E50" s="3">
         <v>4</v>
@@ -16304,7 +16307,7 @@
         <v>97</v>
       </c>
       <c r="AZ50" s="3" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="BA50" s="3" t="b">
         <v>1</v>
@@ -16346,16 +16349,16 @@
         <v>468</v>
       </c>
       <c r="BN50" s="3" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="BO50" s="3" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="BP50" s="3" t="s">
         <v>97</v>
       </c>
       <c r="BQ50" s="11" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="BR50" s="3">
         <v>2016</v>
@@ -16364,7 +16367,7 @@
         <v>97</v>
       </c>
       <c r="BT50" s="4" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="BU50" s="3">
         <v>2016</v>
@@ -16421,7 +16424,7 @@
         <v>10</v>
       </c>
       <c r="CM50" s="3" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="CN50" s="3" t="s">
         <v>112</v>
@@ -16444,7 +16447,7 @@
         <v>129</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="E51" s="3">
         <v>4</v>
@@ -16588,7 +16591,7 @@
         <v>97</v>
       </c>
       <c r="AZ51" s="3" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="BA51" s="3" t="b">
         <v>1</v>
@@ -16630,16 +16633,16 @@
         <v>468</v>
       </c>
       <c r="BN51" s="3" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="BO51" s="3" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="BP51" s="3" t="s">
         <v>97</v>
       </c>
       <c r="BQ51" s="11" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="BR51" s="3">
         <v>2016</v>
@@ -16648,7 +16651,7 @@
         <v>97</v>
       </c>
       <c r="BT51" s="4" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="BU51" s="3">
         <v>2016</v>
@@ -16705,7 +16708,7 @@
         <v>11</v>
       </c>
       <c r="CM51" s="3" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="CN51" s="3" t="s">
         <v>112</v>
@@ -16728,7 +16731,7 @@
         <v>129</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="E52" s="3">
         <v>4</v>
@@ -16881,10 +16884,10 @@
         <v>0</v>
       </c>
       <c r="BC52" s="3" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="BD52" s="3" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="BE52" s="3" t="s">
         <v>97</v>
@@ -16914,16 +16917,16 @@
         <v>468</v>
       </c>
       <c r="BN52" s="3" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="BO52" s="3" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="BP52" s="3" t="s">
         <v>97</v>
       </c>
       <c r="BQ52" s="11" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="BR52" s="3">
         <v>2016</v>
@@ -16932,7 +16935,7 @@
         <v>97</v>
       </c>
       <c r="BT52" s="4" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="BU52" s="3">
         <v>2016</v>
@@ -16989,7 +16992,7 @@
         <v>12</v>
       </c>
       <c r="CM52" s="3" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="CN52" s="3" t="s">
         <v>112</v>
@@ -17012,7 +17015,7 @@
         <v>129</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="E53" s="3">
         <v>4</v>
@@ -17165,10 +17168,10 @@
         <v>0</v>
       </c>
       <c r="BC53" s="3" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="BD53" s="3" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="BE53" s="3" t="s">
         <v>97</v>
@@ -17198,16 +17201,16 @@
         <v>468</v>
       </c>
       <c r="BN53" s="3" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="BO53" s="3" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="BP53" s="3" t="s">
         <v>97</v>
       </c>
       <c r="BQ53" s="11" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="BR53" s="3">
         <v>2016</v>
@@ -17216,7 +17219,7 @@
         <v>97</v>
       </c>
       <c r="BT53" s="4" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="BU53" s="3">
         <v>2016</v>
@@ -17273,7 +17276,7 @@
         <v>13</v>
       </c>
       <c r="CM53" s="3" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="CN53" s="3" t="s">
         <v>112</v>
@@ -17293,10 +17296,10 @@
         <v>2688</v>
       </c>
       <c r="C54" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="D54" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="E54">
         <v>3</v>
@@ -17557,7 +17560,7 @@
         <v>12</v>
       </c>
       <c r="CM54" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="CN54" t="s">
         <v>112</v>
@@ -17577,10 +17580,10 @@
         <v>2688</v>
       </c>
       <c r="C55" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="D55" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="E55">
         <v>3</v>
@@ -17724,7 +17727,7 @@
         <v>114</v>
       </c>
       <c r="AZ55" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="BA55" t="b">
         <v>1</v>
@@ -17766,7 +17769,7 @@
         <v>97</v>
       </c>
       <c r="BN55" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="BO55" t="s">
         <v>97</v>
@@ -17841,7 +17844,7 @@
         <v>13</v>
       </c>
       <c r="CM55" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="CN55" t="s">
         <v>112</v>
@@ -17861,10 +17864,10 @@
         <v>2688</v>
       </c>
       <c r="C56" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="D56" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="E56">
         <v>3</v>
@@ -18125,7 +18128,7 @@
         <v>15</v>
       </c>
       <c r="CM56" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="CN56" t="s">
         <v>112</v>
@@ -18145,10 +18148,10 @@
         <v>2688</v>
       </c>
       <c r="C57" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="D57" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="E57">
         <v>3</v>
@@ -18292,7 +18295,7 @@
         <v>114</v>
       </c>
       <c r="AZ57" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="BA57" t="b">
         <v>1</v>
@@ -18334,7 +18337,7 @@
         <v>97</v>
       </c>
       <c r="BN57" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="BO57" t="s">
         <v>97</v>
@@ -18409,7 +18412,7 @@
         <v>16</v>
       </c>
       <c r="CM57" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="CN57" t="s">
         <v>112</v>
@@ -18429,10 +18432,10 @@
         <v>2688</v>
       </c>
       <c r="C58" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="D58" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="E58">
         <v>3</v>
@@ -18618,10 +18621,10 @@
         <v>97</v>
       </c>
       <c r="BN58" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="BO58" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="BP58" t="s">
         <v>97</v>
@@ -18693,7 +18696,7 @@
         <v>18</v>
       </c>
       <c r="CM58" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="CN58" t="s">
         <v>112</v>
@@ -18713,10 +18716,10 @@
         <v>2688</v>
       </c>
       <c r="C59" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="D59" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="E59">
         <v>3</v>
@@ -18902,7 +18905,7 @@
         <v>97</v>
       </c>
       <c r="BN59" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="BO59" t="s">
         <v>106</v>
@@ -18977,7 +18980,7 @@
         <v>19</v>
       </c>
       <c r="CM59" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="CN59" t="s">
         <v>112</v>
@@ -18997,10 +19000,10 @@
         <v>2688</v>
       </c>
       <c r="C60" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="D60" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="E60">
         <v>3</v>
@@ -19186,7 +19189,7 @@
         <v>97</v>
       </c>
       <c r="BN60" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="BO60" t="s">
         <v>97</v>
@@ -19261,7 +19264,7 @@
         <v>14</v>
       </c>
       <c r="CM60" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="CN60" t="s">
         <v>112</v>
@@ -19281,10 +19284,10 @@
         <v>2688</v>
       </c>
       <c r="C61" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="D61" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="E61">
         <v>3</v>
@@ -19470,7 +19473,7 @@
         <v>97</v>
       </c>
       <c r="BN61" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="BO61" t="s">
         <v>97</v>
@@ -19545,7 +19548,7 @@
         <v>17</v>
       </c>
       <c r="CM61" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="CN61" t="s">
         <v>112</v>
@@ -19565,16 +19568,16 @@
         <v>2876</v>
       </c>
       <c r="C62" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="D62" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="E62">
         <v>5</v>
       </c>
       <c r="F62" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="G62">
         <v>3.3</v>
@@ -19754,16 +19757,16 @@
         <v>97</v>
       </c>
       <c r="BN62" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="BO62" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="BP62" t="s">
         <v>97</v>
       </c>
       <c r="BQ62" s="11" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="BR62">
         <v>2016</v>
@@ -19772,7 +19775,7 @@
         <v>97</v>
       </c>
       <c r="BT62" s="1" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="BU62">
         <v>2016</v>
@@ -19829,7 +19832,7 @@
         <v>14</v>
       </c>
       <c r="CM62" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="CN62" t="s">
         <v>112</v>
@@ -19849,16 +19852,16 @@
         <v>2876</v>
       </c>
       <c r="C63" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="D63" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="E63">
         <v>5</v>
       </c>
       <c r="F63" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="G63">
         <v>3.4</v>
@@ -20038,16 +20041,16 @@
         <v>97</v>
       </c>
       <c r="BN63" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="BO63" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="BP63" t="s">
         <v>97</v>
       </c>
       <c r="BQ63" s="11" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="BR63">
         <v>2016</v>
@@ -20056,7 +20059,7 @@
         <v>97</v>
       </c>
       <c r="BT63" s="1" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="BU63">
         <v>2016</v>
@@ -20113,7 +20116,7 @@
         <v>15</v>
       </c>
       <c r="CM63" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="CN63" t="s">
         <v>112</v>
@@ -20133,16 +20136,16 @@
         <v>2876</v>
       </c>
       <c r="C64" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="D64" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="E64">
         <v>5</v>
       </c>
       <c r="F64" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="G64">
         <v>0.2</v>
@@ -20322,16 +20325,16 @@
         <v>97</v>
       </c>
       <c r="BN64" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="BO64" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="BP64" t="s">
         <v>97</v>
       </c>
       <c r="BQ64" s="11" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="BR64">
         <v>2016</v>
@@ -20340,7 +20343,7 @@
         <v>97</v>
       </c>
       <c r="BT64" s="1" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="BU64">
         <v>2016</v>
@@ -20397,7 +20400,7 @@
         <v>16</v>
       </c>
       <c r="CM64" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="CN64" t="s">
         <v>112</v>
@@ -20417,16 +20420,16 @@
         <v>2876</v>
       </c>
       <c r="C65" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="D65" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="E65">
         <v>5</v>
       </c>
       <c r="F65" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="G65">
         <v>0.1</v>
@@ -20606,16 +20609,16 @@
         <v>97</v>
       </c>
       <c r="BN65" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="BO65" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="BP65" t="s">
         <v>97</v>
       </c>
       <c r="BQ65" s="11" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="BR65">
         <v>2016</v>
@@ -20624,7 +20627,7 @@
         <v>97</v>
       </c>
       <c r="BT65" s="1" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="BU65">
         <v>2016</v>
@@ -20681,7 +20684,7 @@
         <v>17</v>
       </c>
       <c r="CM65" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="CN65" t="s">
         <v>112</v>
@@ -20704,7 +20707,7 @@
         <v>178</v>
       </c>
       <c r="D66" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="E66">
         <v>3</v>
@@ -20860,7 +20863,7 @@
         <v>99</v>
       </c>
       <c r="BD66" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="BE66" t="s">
         <v>97</v>
@@ -20890,16 +20893,16 @@
         <v>3296</v>
       </c>
       <c r="BN66" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="BO66" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="BP66">
         <v>1</v>
       </c>
       <c r="BQ66" s="11" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="BR66">
         <v>2016</v>
@@ -20908,7 +20911,7 @@
         <v>28</v>
       </c>
       <c r="BT66" s="1" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="BU66">
         <v>2017</v>
@@ -20965,7 +20968,7 @@
         <v>5</v>
       </c>
       <c r="CM66" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="CN66" t="s">
         <v>112</v>
@@ -20988,7 +20991,7 @@
         <v>178</v>
       </c>
       <c r="D67" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="E67">
         <v>3</v>
@@ -21144,7 +21147,7 @@
         <v>99</v>
       </c>
       <c r="BD67" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="BE67" t="s">
         <v>97</v>
@@ -21174,16 +21177,16 @@
         <v>3296</v>
       </c>
       <c r="BN67" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="BO67" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="BP67">
         <v>1</v>
       </c>
       <c r="BQ67" s="11" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="BR67">
         <v>2016</v>
@@ -21192,7 +21195,7 @@
         <v>28</v>
       </c>
       <c r="BT67" s="1" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="BU67">
         <v>2017</v>
@@ -21249,7 +21252,7 @@
         <v>6</v>
       </c>
       <c r="CM67" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="CN67" t="s">
         <v>112</v>
@@ -21272,7 +21275,7 @@
         <v>178</v>
       </c>
       <c r="D68" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="E68">
         <v>3</v>
@@ -21428,7 +21431,7 @@
         <v>99</v>
       </c>
       <c r="BD68" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="BE68" t="s">
         <v>97</v>
@@ -21458,16 +21461,16 @@
         <v>2659</v>
       </c>
       <c r="BN68" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="BO68" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="BP68">
         <v>1</v>
       </c>
       <c r="BQ68" s="11" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="BR68">
         <v>2016</v>
@@ -21476,7 +21479,7 @@
         <v>28</v>
       </c>
       <c r="BT68" s="1" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="BU68">
         <v>2017</v>
@@ -21533,7 +21536,7 @@
         <v>7</v>
       </c>
       <c r="CM68" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="CN68" t="s">
         <v>112</v>
@@ -21556,7 +21559,7 @@
         <v>178</v>
       </c>
       <c r="D69" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="E69">
         <v>3</v>
@@ -21742,16 +21745,16 @@
         <v>2659</v>
       </c>
       <c r="BN69" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="BO69" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="BP69">
         <v>1</v>
       </c>
       <c r="BQ69" s="11" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="BR69">
         <v>2016</v>
@@ -21760,7 +21763,7 @@
         <v>28</v>
       </c>
       <c r="BT69" s="1" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="BU69">
         <v>2017</v>
@@ -21817,7 +21820,7 @@
         <v>8</v>
       </c>
       <c r="CM69" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="CN69" t="s">
         <v>112</v>
@@ -21840,7 +21843,7 @@
         <v>178</v>
       </c>
       <c r="D70" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="E70">
         <v>3</v>
@@ -21996,7 +21999,7 @@
         <v>114</v>
       </c>
       <c r="BD70" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="BE70" t="s">
         <v>97</v>
@@ -22026,16 +22029,16 @@
         <v>3893</v>
       </c>
       <c r="BN70" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="BO70" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="BP70">
         <v>1</v>
       </c>
       <c r="BQ70" s="11" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="BR70">
         <v>2016</v>
@@ -22044,7 +22047,7 @@
         <v>28</v>
       </c>
       <c r="BT70" s="1" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="BU70">
         <v>2017</v>
@@ -22101,7 +22104,7 @@
         <v>9</v>
       </c>
       <c r="CM70" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="CN70" t="s">
         <v>112</v>
@@ -22124,7 +22127,7 @@
         <v>178</v>
       </c>
       <c r="D71" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="E71">
         <v>3</v>
@@ -22280,7 +22283,7 @@
         <v>114</v>
       </c>
       <c r="BD71" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="BE71" t="s">
         <v>97</v>
@@ -22310,16 +22313,16 @@
         <v>3893</v>
       </c>
       <c r="BN71" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="BO71" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="BP71">
         <v>1</v>
       </c>
       <c r="BQ71" s="11" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="BR71">
         <v>2016</v>
@@ -22328,7 +22331,7 @@
         <v>28</v>
       </c>
       <c r="BT71" s="1" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="BU71">
         <v>2017</v>
@@ -22385,7 +22388,7 @@
         <v>10</v>
       </c>
       <c r="CM71" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="CN71" t="s">
         <v>112</v>
@@ -22408,7 +22411,7 @@
         <v>178</v>
       </c>
       <c r="D72" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="E72">
         <v>3</v>
@@ -22564,7 +22567,7 @@
         <v>114</v>
       </c>
       <c r="BD72" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="BE72" t="s">
         <v>97</v>
@@ -22594,16 +22597,16 @@
         <v>3893</v>
       </c>
       <c r="BN72" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="BO72" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="BP72">
         <v>1</v>
       </c>
       <c r="BQ72" s="11" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="BR72">
         <v>2016</v>
@@ -22612,7 +22615,7 @@
         <v>28</v>
       </c>
       <c r="BT72" s="1" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="BU72">
         <v>2017</v>
@@ -22669,7 +22672,7 @@
         <v>11</v>
       </c>
       <c r="CM72" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="CN72" t="s">
         <v>112</v>
@@ -22692,7 +22695,7 @@
         <v>178</v>
       </c>
       <c r="D73" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="E73">
         <v>3</v>
@@ -22878,16 +22881,16 @@
         <v>3893</v>
       </c>
       <c r="BN73" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="BO73" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="BP73">
         <v>1</v>
       </c>
       <c r="BQ73" s="11" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="BR73">
         <v>2016</v>
@@ -22896,7 +22899,7 @@
         <v>28</v>
       </c>
       <c r="BT73" s="1" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="BU73">
         <v>2017</v>
@@ -22953,7 +22956,7 @@
         <v>12</v>
       </c>
       <c r="CM73" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="CN73" t="s">
         <v>112</v>
@@ -22973,10 +22976,10 @@
         <v>3017</v>
       </c>
       <c r="C74" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="D74" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="E74">
         <v>4</v>
@@ -23162,7 +23165,7 @@
         <v>97</v>
       </c>
       <c r="BN74" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="BO74" t="s">
         <v>97</v>
@@ -23171,7 +23174,7 @@
         <v>97</v>
       </c>
       <c r="BQ74" s="11" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="BR74">
         <v>2015</v>
@@ -23180,7 +23183,7 @@
         <v>27</v>
       </c>
       <c r="BT74" s="1" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="BU74">
         <v>2016</v>
@@ -23237,7 +23240,7 @@
         <v>20</v>
       </c>
       <c r="CM74" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="CN74" t="s">
         <v>112</v>
@@ -23257,16 +23260,16 @@
         <v>3017</v>
       </c>
       <c r="C75" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="D75" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="E75">
         <v>4</v>
       </c>
       <c r="F75" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="G75">
         <v>1.96</v>
@@ -23446,7 +23449,7 @@
         <v>97</v>
       </c>
       <c r="BN75" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="BO75" t="s">
         <v>97</v>
@@ -23455,7 +23458,7 @@
         <v>97</v>
       </c>
       <c r="BQ75" s="11" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="BR75">
         <v>2015</v>
@@ -23464,7 +23467,7 @@
         <v>27</v>
       </c>
       <c r="BT75" s="1" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="BU75">
         <v>2016</v>
@@ -23521,7 +23524,7 @@
         <v>21</v>
       </c>
       <c r="CM75" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="CN75" t="s">
         <v>112</v>
@@ -23541,10 +23544,10 @@
         <v>3017</v>
       </c>
       <c r="C76" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="D76" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="E76">
         <v>4</v>
@@ -23730,7 +23733,7 @@
         <v>97</v>
       </c>
       <c r="BN76" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="BO76" t="s">
         <v>97</v>
@@ -23739,7 +23742,7 @@
         <v>97</v>
       </c>
       <c r="BQ76" s="11" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="BR76">
         <v>2015</v>
@@ -23748,7 +23751,7 @@
         <v>27</v>
       </c>
       <c r="BT76" s="1" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="BU76">
         <v>2016</v>
@@ -23805,7 +23808,7 @@
         <v>22</v>
       </c>
       <c r="CM76" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="CN76" t="s">
         <v>112</v>
@@ -23825,10 +23828,10 @@
         <v>3017</v>
       </c>
       <c r="C77" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="D77" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="E77">
         <v>4</v>
@@ -24089,7 +24092,7 @@
         <v>23</v>
       </c>
       <c r="CM77" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="CN77" t="s">
         <v>112</v>
@@ -24112,7 +24115,7 @@
         <v>213</v>
       </c>
       <c r="D78" s="7" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="E78" s="7">
         <v>2</v>
@@ -24298,16 +24301,16 @@
         <v>150</v>
       </c>
       <c r="BN78" s="7" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="BO78" s="7" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="BP78" s="7" t="s">
         <v>97</v>
       </c>
       <c r="BQ78" s="15" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="BR78" s="7">
         <v>2015</v>
@@ -24316,7 +24319,7 @@
         <v>97</v>
       </c>
       <c r="BT78" s="4" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="BU78" s="7">
         <v>2015</v>
@@ -24373,7 +24376,7 @@
         <v>5</v>
       </c>
       <c r="CM78" s="7" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="CN78" s="7" t="s">
         <v>112</v>
@@ -24396,7 +24399,7 @@
         <v>213</v>
       </c>
       <c r="D79" s="7" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="E79" s="7">
         <v>2</v>
@@ -24582,16 +24585,16 @@
         <v>186</v>
       </c>
       <c r="BN79" s="7" t="s">
+        <v>334</v>
+      </c>
+      <c r="BO79" s="7" t="s">
         <v>338</v>
       </c>
-      <c r="BO79" s="7" t="s">
-        <v>342</v>
-      </c>
       <c r="BP79" s="7" t="s">
         <v>97</v>
       </c>
       <c r="BQ79" s="15" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="BR79" s="7">
         <v>2015</v>
@@ -24600,7 +24603,7 @@
         <v>97</v>
       </c>
       <c r="BT79" s="4" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="BU79" s="7">
         <v>2015</v>
@@ -24657,7 +24660,7 @@
         <v>6</v>
       </c>
       <c r="CM79" s="7" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="CN79" s="7" t="s">
         <v>112</v>
@@ -24680,7 +24683,7 @@
         <v>213</v>
       </c>
       <c r="D80" s="7" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="E80" s="7">
         <v>2</v>
@@ -24866,16 +24869,16 @@
         <v>149</v>
       </c>
       <c r="BN80" s="7" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="BO80" s="7" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="BP80" s="7" t="s">
         <v>97</v>
       </c>
       <c r="BQ80" s="15" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="BR80" s="7">
         <v>2015</v>
@@ -24884,7 +24887,7 @@
         <v>97</v>
       </c>
       <c r="BT80" s="4" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="BU80" s="7">
         <v>2015</v>
@@ -24941,7 +24944,7 @@
         <v>7</v>
       </c>
       <c r="CM80" s="7" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="CN80" s="7" t="s">
         <v>112</v>
@@ -24964,7 +24967,7 @@
         <v>213</v>
       </c>
       <c r="D81" s="7" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="E81" s="7">
         <v>2</v>
@@ -25150,16 +25153,16 @@
         <v>170</v>
       </c>
       <c r="BN81" s="7" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="BO81" s="7" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="BP81" s="7" t="s">
         <v>97</v>
       </c>
       <c r="BQ81" s="15" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="BR81" s="7">
         <v>2015</v>
@@ -25168,7 +25171,7 @@
         <v>97</v>
       </c>
       <c r="BT81" s="4" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="BU81" s="7">
         <v>2015</v>
@@ -25225,7 +25228,7 @@
         <v>8</v>
       </c>
       <c r="CM81" s="7" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="CN81" s="7" t="s">
         <v>112</v>
@@ -25248,7 +25251,7 @@
         <v>213</v>
       </c>
       <c r="D82" s="7" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="E82" s="7">
         <v>2</v>
@@ -25434,16 +25437,16 @@
         <v>272</v>
       </c>
       <c r="BN82" s="7" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="BO82" s="7" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="BP82" s="7" t="s">
         <v>97</v>
       </c>
       <c r="BQ82" s="15" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="BR82" s="7">
         <v>2015</v>
@@ -25452,7 +25455,7 @@
         <v>97</v>
       </c>
       <c r="BT82" s="4" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="BU82" s="7">
         <v>2015</v>
@@ -25509,7 +25512,7 @@
         <v>9</v>
       </c>
       <c r="CM82" s="7" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="CN82" s="7" t="s">
         <v>112</v>
@@ -25532,7 +25535,7 @@
         <v>213</v>
       </c>
       <c r="D83" s="7" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="E83" s="7">
         <v>2</v>
@@ -25718,16 +25721,16 @@
         <v>157</v>
       </c>
       <c r="BN83" s="7" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="BO83" s="7" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="BP83" s="7" t="s">
         <v>97</v>
       </c>
       <c r="BQ83" s="15" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="BR83" s="7">
         <v>2015</v>
@@ -25736,7 +25739,7 @@
         <v>97</v>
       </c>
       <c r="BT83" s="4" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="BU83" s="7">
         <v>2015</v>
@@ -25793,7 +25796,7 @@
         <v>10</v>
       </c>
       <c r="CM83" s="7" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="CN83" s="7" t="s">
         <v>112</v>
@@ -25816,7 +25819,7 @@
         <v>213</v>
       </c>
       <c r="D84" s="7" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="E84" s="7">
         <v>2</v>
@@ -25969,10 +25972,10 @@
         <v>245</v>
       </c>
       <c r="BC84" s="7" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="BD84" s="7" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="BE84" s="7" t="s">
         <v>114</v>
@@ -26002,16 +26005,16 @@
         <v>1084</v>
       </c>
       <c r="BN84" s="7" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="BO84" s="7" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="BP84" s="7" t="s">
         <v>97</v>
       </c>
       <c r="BQ84" s="15" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="BR84" s="7">
         <v>2015</v>
@@ -26020,7 +26023,7 @@
         <v>97</v>
       </c>
       <c r="BT84" s="4" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="BU84" s="7">
         <v>2015</v>
@@ -26077,7 +26080,7 @@
         <v>11</v>
       </c>
       <c r="CM84" s="7" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="CN84" s="7" t="s">
         <v>112</v>
@@ -26089,287 +26092,287 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:94" x14ac:dyDescent="0.3">
-      <c r="A85">
+    <row r="85" spans="1:94" s="19" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A85" s="19">
         <v>1</v>
       </c>
-      <c r="B85">
+      <c r="B85" s="19">
         <v>3039</v>
       </c>
-      <c r="C85" t="s">
+      <c r="C85" s="19" t="s">
         <v>157</v>
       </c>
-      <c r="D85" t="s">
+      <c r="D85" s="19" t="s">
+        <v>350</v>
+      </c>
+      <c r="E85" s="19">
+        <v>6</v>
+      </c>
+      <c r="F85" s="19" t="s">
+        <v>201</v>
+      </c>
+      <c r="G85" s="19">
+        <v>7.6</v>
+      </c>
+      <c r="H85" s="19" t="s">
+        <v>97</v>
+      </c>
+      <c r="I85" s="19">
+        <v>0</v>
+      </c>
+      <c r="J85" s="19">
+        <v>0</v>
+      </c>
+      <c r="K85" s="19" t="s">
+        <v>159</v>
+      </c>
+      <c r="L85" s="19" t="s">
+        <v>159</v>
+      </c>
+      <c r="M85" s="19" t="s">
+        <v>97</v>
+      </c>
+      <c r="N85" s="19" t="s">
+        <v>97</v>
+      </c>
+      <c r="O85" s="19" t="s">
+        <v>97</v>
+      </c>
+      <c r="P85" s="19" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q85" s="19" t="s">
+        <v>132</v>
+      </c>
+      <c r="R85" s="19" t="s">
+        <v>97</v>
+      </c>
+      <c r="S85" s="19" t="s">
+        <v>97</v>
+      </c>
+      <c r="T85" s="19" t="s">
+        <v>97</v>
+      </c>
+      <c r="U85" s="19" t="s">
+        <v>97</v>
+      </c>
+      <c r="V85" s="19" t="s">
+        <v>97</v>
+      </c>
+      <c r="W85" s="19">
+        <v>4.8</v>
+      </c>
+      <c r="X85" s="19" t="s">
+        <v>97</v>
+      </c>
+      <c r="Y85" s="19">
+        <v>14</v>
+      </c>
+      <c r="Z85" s="19" t="s">
+        <v>97</v>
+      </c>
+      <c r="AA85" s="19" t="s">
+        <v>148</v>
+      </c>
+      <c r="AB85" s="19" t="s">
+        <v>97</v>
+      </c>
+      <c r="AC85" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="AD85" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="AE85" s="19" t="s">
+        <v>97</v>
+      </c>
+      <c r="AF85" s="19" t="s">
+        <v>97</v>
+      </c>
+      <c r="AG85" s="19" t="s">
+        <v>97</v>
+      </c>
+      <c r="AH85" s="19" t="s">
+        <v>97</v>
+      </c>
+      <c r="AI85" s="19" t="s">
+        <v>97</v>
+      </c>
+      <c r="AJ85" s="19" t="s">
+        <v>97</v>
+      </c>
+      <c r="AK85" s="19" t="s">
+        <v>97</v>
+      </c>
+      <c r="AL85" s="19" t="s">
+        <v>97</v>
+      </c>
+      <c r="AM85" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="AN85" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="AO85" s="19" t="s">
+        <v>97</v>
+      </c>
+      <c r="AP85" s="19" t="s">
+        <v>97</v>
+      </c>
+      <c r="AQ85" s="19" t="s">
+        <v>97</v>
+      </c>
+      <c r="AR85" s="19" t="s">
+        <v>97</v>
+      </c>
+      <c r="AS85" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT85" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="AU85" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="AV85" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="AW85" s="19" t="s">
+        <v>135</v>
+      </c>
+      <c r="AX85" s="19" t="s">
+        <v>97</v>
+      </c>
+      <c r="AY85" s="19" t="s">
+        <v>351</v>
+      </c>
+      <c r="AZ85" s="19" t="s">
+        <v>168</v>
+      </c>
+      <c r="BA85" s="19" t="b">
+        <v>1</v>
+      </c>
+      <c r="BB85" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="BC85" s="19" t="s">
+        <v>97</v>
+      </c>
+      <c r="BD85" s="19" t="s">
+        <v>97</v>
+      </c>
+      <c r="BE85" s="19" t="s">
+        <v>97</v>
+      </c>
+      <c r="BF85" s="19" t="s">
+        <v>97</v>
+      </c>
+      <c r="BG85" s="19" t="s">
+        <v>97</v>
+      </c>
+      <c r="BH85" s="19" t="s">
+        <v>97</v>
+      </c>
+      <c r="BI85" s="19" t="s">
+        <v>137</v>
+      </c>
+      <c r="BJ85" s="19" t="s">
+        <v>161</v>
+      </c>
+      <c r="BK85" s="19" t="s">
+        <v>97</v>
+      </c>
+      <c r="BL85" s="19" t="s">
+        <v>97</v>
+      </c>
+      <c r="BM85" s="19">
+        <v>108</v>
+      </c>
+      <c r="BN85" s="19" t="s">
+        <v>208</v>
+      </c>
+      <c r="BO85" s="19" t="s">
+        <v>352</v>
+      </c>
+      <c r="BP85" s="19" t="s">
+        <v>97</v>
+      </c>
+      <c r="BQ85" s="20" t="s">
+        <v>407</v>
+      </c>
+      <c r="BR85" s="19">
+        <v>2007</v>
+      </c>
+      <c r="BS85" s="19" t="s">
+        <v>97</v>
+      </c>
+      <c r="BT85" s="21" t="s">
+        <v>418</v>
+      </c>
+      <c r="BU85" s="19">
+        <v>2007</v>
+      </c>
+      <c r="BV85" s="19" t="s">
+        <v>97</v>
+      </c>
+      <c r="BW85" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="BX85" s="19" t="s">
+        <v>108</v>
+      </c>
+      <c r="BY85" s="19" t="s">
+        <v>108</v>
+      </c>
+      <c r="BZ85" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="CA85" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="CB85" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="CC85" s="19" t="s">
+        <v>141</v>
+      </c>
+      <c r="CD85" s="19" t="s">
+        <v>97</v>
+      </c>
+      <c r="CE85" s="19" t="s">
+        <v>97</v>
+      </c>
+      <c r="CF85" s="19" t="s">
+        <v>353</v>
+      </c>
+      <c r="CG85" s="19" t="s">
+        <v>143</v>
+      </c>
+      <c r="CH85" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="CI85" s="19" t="s">
+        <v>97</v>
+      </c>
+      <c r="CJ85" s="19" t="s">
+        <v>97</v>
+      </c>
+      <c r="CK85" s="19" t="s">
+        <v>97</v>
+      </c>
+      <c r="CL85" s="19">
+        <v>10</v>
+      </c>
+      <c r="CM85" s="19" t="s">
         <v>354</v>
       </c>
-      <c r="E85">
-        <v>6</v>
-      </c>
-      <c r="F85" t="s">
-        <v>201</v>
-      </c>
-      <c r="G85">
-        <v>7.6</v>
-      </c>
-      <c r="H85" t="s">
-        <v>97</v>
-      </c>
-      <c r="I85">
-        <v>0</v>
-      </c>
-      <c r="J85">
-        <v>0</v>
-      </c>
-      <c r="K85" t="s">
-        <v>159</v>
-      </c>
-      <c r="L85" t="s">
-        <v>159</v>
-      </c>
-      <c r="M85">
-        <v>5.8</v>
-      </c>
-      <c r="N85" t="s">
-        <v>97</v>
-      </c>
-      <c r="O85">
-        <v>8.4</v>
-      </c>
-      <c r="P85" t="s">
-        <v>97</v>
-      </c>
-      <c r="Q85" t="s">
-        <v>132</v>
-      </c>
-      <c r="R85" t="s">
-        <v>355</v>
-      </c>
-      <c r="S85" t="s">
-        <v>97</v>
-      </c>
-      <c r="T85" t="s">
-        <v>97</v>
-      </c>
-      <c r="U85" t="s">
-        <v>97</v>
-      </c>
-      <c r="V85" t="s">
-        <v>97</v>
-      </c>
-      <c r="W85">
-        <v>4.8</v>
-      </c>
-      <c r="X85" t="s">
-        <v>97</v>
-      </c>
-      <c r="Y85">
-        <v>14</v>
-      </c>
-      <c r="Z85" t="s">
-        <v>97</v>
-      </c>
-      <c r="AA85" t="s">
-        <v>148</v>
-      </c>
-      <c r="AB85" t="s">
-        <v>97</v>
-      </c>
-      <c r="AC85" t="s">
-        <v>134</v>
-      </c>
-      <c r="AD85" t="s">
-        <v>134</v>
-      </c>
-      <c r="AE85" t="s">
-        <v>97</v>
-      </c>
-      <c r="AF85" t="s">
-        <v>97</v>
-      </c>
-      <c r="AG85" t="s">
-        <v>97</v>
-      </c>
-      <c r="AH85" t="s">
-        <v>97</v>
-      </c>
-      <c r="AI85" t="s">
-        <v>97</v>
-      </c>
-      <c r="AJ85" t="s">
-        <v>97</v>
-      </c>
-      <c r="AK85" t="s">
-        <v>97</v>
-      </c>
-      <c r="AL85" t="s">
-        <v>97</v>
-      </c>
-      <c r="AM85" t="b">
-        <v>0</v>
-      </c>
-      <c r="AN85" t="b">
-        <v>0</v>
-      </c>
-      <c r="AO85" t="s">
-        <v>97</v>
-      </c>
-      <c r="AP85" t="s">
-        <v>97</v>
-      </c>
-      <c r="AQ85" t="s">
-        <v>97</v>
-      </c>
-      <c r="AR85" t="s">
-        <v>97</v>
-      </c>
-      <c r="AS85" t="b">
-        <v>0</v>
-      </c>
-      <c r="AT85" t="b">
-        <v>0</v>
-      </c>
-      <c r="AU85" t="b">
-        <v>0</v>
-      </c>
-      <c r="AV85" t="b">
-        <v>0</v>
-      </c>
-      <c r="AW85" t="s">
-        <v>135</v>
-      </c>
-      <c r="AX85" t="s">
-        <v>97</v>
-      </c>
-      <c r="AY85" t="s">
-        <v>356</v>
-      </c>
-      <c r="AZ85" t="s">
-        <v>168</v>
-      </c>
-      <c r="BA85" t="b">
+      <c r="CN85" s="19" t="s">
+        <v>112</v>
+      </c>
+      <c r="CO85" s="19">
         <v>1</v>
       </c>
-      <c r="BB85" t="b">
-        <v>0</v>
-      </c>
-      <c r="BC85" t="s">
-        <v>97</v>
-      </c>
-      <c r="BD85" t="s">
-        <v>97</v>
-      </c>
-      <c r="BE85" t="s">
-        <v>97</v>
-      </c>
-      <c r="BF85" t="s">
-        <v>97</v>
-      </c>
-      <c r="BG85" t="s">
-        <v>97</v>
-      </c>
-      <c r="BH85" t="s">
-        <v>97</v>
-      </c>
-      <c r="BI85" t="s">
-        <v>137</v>
-      </c>
-      <c r="BJ85" t="s">
-        <v>161</v>
-      </c>
-      <c r="BK85" t="s">
-        <v>97</v>
-      </c>
-      <c r="BL85" t="s">
-        <v>97</v>
-      </c>
-      <c r="BM85">
-        <v>108</v>
-      </c>
-      <c r="BN85" t="s">
-        <v>208</v>
-      </c>
-      <c r="BO85" t="s">
-        <v>357</v>
-      </c>
-      <c r="BP85" t="s">
-        <v>97</v>
-      </c>
-      <c r="BQ85" s="11" t="s">
-        <v>412</v>
-      </c>
-      <c r="BR85">
-        <v>2007</v>
-      </c>
-      <c r="BS85" t="s">
-        <v>97</v>
-      </c>
-      <c r="BT85" s="1" t="s">
-        <v>423</v>
-      </c>
-      <c r="BU85">
-        <v>2007</v>
-      </c>
-      <c r="BV85" t="s">
-        <v>97</v>
-      </c>
-      <c r="BW85" t="b">
-        <v>0</v>
-      </c>
-      <c r="BX85" t="s">
-        <v>108</v>
-      </c>
-      <c r="BY85" t="s">
-        <v>108</v>
-      </c>
-      <c r="BZ85" t="b">
-        <v>0</v>
-      </c>
-      <c r="CA85" t="b">
-        <v>0</v>
-      </c>
-      <c r="CB85" t="b">
-        <v>0</v>
-      </c>
-      <c r="CC85" t="s">
-        <v>141</v>
-      </c>
-      <c r="CD85" t="s">
-        <v>97</v>
-      </c>
-      <c r="CE85" t="s">
-        <v>97</v>
-      </c>
-      <c r="CF85" t="s">
-        <v>358</v>
-      </c>
-      <c r="CG85" t="s">
-        <v>143</v>
-      </c>
-      <c r="CH85" t="b">
-        <v>0</v>
-      </c>
-      <c r="CI85">
-        <v>6.3</v>
-      </c>
-      <c r="CJ85" t="s">
-        <v>97</v>
-      </c>
-      <c r="CK85">
-        <v>9.6</v>
-      </c>
-      <c r="CL85">
-        <v>10</v>
-      </c>
-      <c r="CM85" t="s">
-        <v>359</v>
-      </c>
-      <c r="CN85" t="s">
-        <v>112</v>
-      </c>
-      <c r="CO85">
-        <v>1</v>
-      </c>
-      <c r="CP85">
+      <c r="CP85" s="19">
         <v>0</v>
       </c>
     </row>
@@ -26384,7 +26387,7 @@
         <v>213</v>
       </c>
       <c r="D86" s="3" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="E86" s="3">
         <v>4</v>
@@ -26573,13 +26576,13 @@
         <v>139</v>
       </c>
       <c r="BO86" s="3" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="BP86" s="3" t="s">
         <v>97</v>
       </c>
       <c r="BQ86" s="12" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="BR86" s="3">
         <v>2015</v>
@@ -26588,7 +26591,7 @@
         <v>97</v>
       </c>
       <c r="BT86" s="4" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="BU86" s="3">
         <v>2016</v>
@@ -26645,7 +26648,7 @@
         <v>14</v>
       </c>
       <c r="CM86" s="3" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="CN86" s="3" t="s">
         <v>112</v>
@@ -26665,10 +26668,10 @@
         <v>3077</v>
       </c>
       <c r="C87" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="D87" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="E87">
         <v>3</v>
@@ -26839,7 +26842,7 @@
         <v>103</v>
       </c>
       <c r="BI87" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="BJ87" t="s">
         <v>161</v>
@@ -26863,7 +26866,7 @@
         <v>97</v>
       </c>
       <c r="BQ87" s="11" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="BR87">
         <v>2015</v>
@@ -26872,7 +26875,7 @@
         <v>97</v>
       </c>
       <c r="BT87" s="1" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="BU87">
         <v>2017</v>
@@ -26929,7 +26932,7 @@
         <v>12</v>
       </c>
       <c r="CM87" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="CN87" t="s">
         <v>112</v>
@@ -26952,13 +26955,13 @@
         <v>94</v>
       </c>
       <c r="D88" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="E88">
         <v>3</v>
       </c>
       <c r="F88" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="G88" t="s">
         <v>97</v>
@@ -27156,13 +27159,13 @@
         <v>97</v>
       </c>
       <c r="BT88" s="1" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="BU88">
         <v>2015</v>
       </c>
       <c r="BV88" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="BW88" t="b">
         <v>1</v>
@@ -27195,7 +27198,7 @@
         <v>97</v>
       </c>
       <c r="CG88" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="CH88" t="b">
         <v>0</v>
@@ -27213,7 +27216,7 @@
         <v>13</v>
       </c>
       <c r="CM88" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="CN88" t="s">
         <v>112</v>
@@ -27236,13 +27239,13 @@
         <v>178</v>
       </c>
       <c r="D89" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="E89">
         <v>5</v>
       </c>
       <c r="F89" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="G89">
         <v>1.2</v>
@@ -27305,7 +27308,7 @@
         <v>97</v>
       </c>
       <c r="AA89" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="AB89" t="s">
         <v>97</v>
@@ -27422,7 +27425,7 @@
         <v>39</v>
       </c>
       <c r="BN89" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="BO89" t="s">
         <v>183</v>
@@ -27446,7 +27449,7 @@
         <v>2016</v>
       </c>
       <c r="BV89" t="s">
-        <v>374</v>
+        <v>369</v>
       </c>
       <c r="BW89" t="b">
         <v>0</v>
@@ -27497,7 +27500,7 @@
         <v>17</v>
       </c>
       <c r="CM89" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="CN89" t="s">
         <v>112</v>
@@ -27520,7 +27523,7 @@
         <v>199</v>
       </c>
       <c r="D90" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="E90">
         <v>4</v>
@@ -27715,7 +27718,7 @@
         <v>97</v>
       </c>
       <c r="BQ90" s="11" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="BR90">
         <v>2013</v>
@@ -27724,7 +27727,7 @@
         <v>97</v>
       </c>
       <c r="BT90" s="1" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="BU90">
         <v>2014</v>
@@ -27781,7 +27784,7 @@
         <v>19</v>
       </c>
       <c r="CM90" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="CN90" t="s">
         <v>112</v>
@@ -27804,7 +27807,7 @@
         <v>199</v>
       </c>
       <c r="D91" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="E91">
         <v>4</v>
@@ -27990,7 +27993,7 @@
         <v>97</v>
       </c>
       <c r="BN91" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="BO91" t="s">
         <v>97</v>
@@ -27999,7 +28002,7 @@
         <v>97</v>
       </c>
       <c r="BQ91" s="11" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="BR91">
         <v>2015</v>
@@ -28008,7 +28011,7 @@
         <v>97</v>
       </c>
       <c r="BT91" s="1" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="BU91">
         <v>2016</v>
@@ -28065,7 +28068,7 @@
         <v>20</v>
       </c>
       <c r="CM91" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="CN91" t="s">
         <v>112</v>
@@ -28088,7 +28091,7 @@
         <v>199</v>
       </c>
       <c r="D92" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="E92">
         <v>4</v>
@@ -28277,13 +28280,13 @@
         <v>139</v>
       </c>
       <c r="BO92" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="BP92" t="s">
         <v>97</v>
       </c>
       <c r="BQ92" s="11" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="BR92">
         <v>2015</v>
@@ -28292,7 +28295,7 @@
         <v>97</v>
       </c>
       <c r="BT92" s="1" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="BU92">
         <v>2016</v>
@@ -28349,7 +28352,7 @@
         <v>21</v>
       </c>
       <c r="CM92" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="CN92" t="s">
         <v>112</v>
@@ -28372,7 +28375,7 @@
         <v>199</v>
       </c>
       <c r="D93" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="E93">
         <v>4</v>
@@ -28567,7 +28570,7 @@
         <v>97</v>
       </c>
       <c r="BQ93" s="11" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="BR93">
         <v>2013</v>
@@ -28576,7 +28579,7 @@
         <v>97</v>
       </c>
       <c r="BT93" s="1" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="BU93">
         <v>2014</v>
@@ -28633,7 +28636,7 @@
         <v>22</v>
       </c>
       <c r="CM93" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="CN93" t="s">
         <v>112</v>
@@ -28656,7 +28659,7 @@
         <v>199</v>
       </c>
       <c r="D94" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="E94">
         <v>4</v>
@@ -28845,13 +28848,13 @@
         <v>212</v>
       </c>
       <c r="BO94" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="BP94" t="s">
         <v>97</v>
       </c>
       <c r="BQ94" s="11" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="BR94">
         <v>2013</v>
@@ -28860,7 +28863,7 @@
         <v>97</v>
       </c>
       <c r="BT94" s="1" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="BU94">
         <v>2014</v>
@@ -28917,7 +28920,7 @@
         <v>23</v>
       </c>
       <c r="CM94" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="CN94" t="s">
         <v>112</v>
@@ -28940,7 +28943,7 @@
         <v>199</v>
       </c>
       <c r="D95" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="E95">
         <v>4</v>
@@ -29129,13 +29132,13 @@
         <v>212</v>
       </c>
       <c r="BO95" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="BP95" t="s">
         <v>97</v>
       </c>
       <c r="BQ95" s="11" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="BR95">
         <v>2013</v>
@@ -29144,7 +29147,7 @@
         <v>97</v>
       </c>
       <c r="BT95" s="1" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="BU95">
         <v>2014</v>
@@ -29201,7 +29204,7 @@
         <v>24</v>
       </c>
       <c r="CM95" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="CN95" t="s">
         <v>112</v>
@@ -29224,7 +29227,7 @@
         <v>129</v>
       </c>
       <c r="D96" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="E96">
         <v>6</v>
@@ -29410,7 +29413,7 @@
         <v>97</v>
       </c>
       <c r="BN96" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="BO96" t="s">
         <v>97</v>
@@ -29419,7 +29422,7 @@
         <v>97</v>
       </c>
       <c r="BQ96" s="11" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="BR96">
         <v>2013</v>
@@ -29428,7 +29431,7 @@
         <v>97</v>
       </c>
       <c r="BT96" s="1" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="BU96">
         <v>2016</v>
@@ -29485,7 +29488,7 @@
         <v>15</v>
       </c>
       <c r="CM96" s="2" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="CN96" t="s">
         <v>112</v>
@@ -29505,10 +29508,10 @@
         <v>3337</v>
       </c>
       <c r="C97" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="D97" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="E97">
         <v>4</v>
@@ -29652,7 +29655,7 @@
         <v>97</v>
       </c>
       <c r="AZ97" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="BA97" t="b">
         <v>1</v>
@@ -29703,7 +29706,7 @@
         <v>1</v>
       </c>
       <c r="BQ97" s="11" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="BR97">
         <v>2007</v>
@@ -29712,7 +29715,7 @@
         <v>31</v>
       </c>
       <c r="BT97" s="1" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="BU97">
         <v>2007</v>
@@ -29745,7 +29748,7 @@
         <v>97</v>
       </c>
       <c r="CE97" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="CF97" t="s">
         <v>97</v>
@@ -29769,7 +29772,7 @@
         <v>9</v>
       </c>
       <c r="CM97" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="CN97" t="s">
         <v>112</v>
@@ -29789,10 +29792,10 @@
         <v>3337</v>
       </c>
       <c r="C98" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="D98" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="E98">
         <v>2</v>
@@ -29987,7 +29990,7 @@
         <v>1</v>
       </c>
       <c r="BQ98" s="11" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="BR98">
         <v>2007</v>
@@ -29996,7 +29999,7 @@
         <v>31</v>
       </c>
       <c r="BT98" s="1" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="BU98">
         <v>2007</v>
@@ -30053,7 +30056,7 @@
         <v>8</v>
       </c>
       <c r="CM98" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="CN98" t="s">
         <v>112</v>
@@ -30073,10 +30076,10 @@
         <v>3337</v>
       </c>
       <c r="C99" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="D99" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="E99">
         <v>2</v>
@@ -30229,10 +30232,10 @@
         <v>0</v>
       </c>
       <c r="BC99" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="BD99" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="BE99" t="s">
         <v>136</v>
@@ -30271,7 +30274,7 @@
         <v>1</v>
       </c>
       <c r="BQ99" s="11" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="BR99">
         <v>2007</v>
@@ -30280,7 +30283,7 @@
         <v>31</v>
       </c>
       <c r="BT99" s="1" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="BU99">
         <v>2007</v>
@@ -30337,7 +30340,7 @@
         <v>10</v>
       </c>
       <c r="CM99" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="CN99" t="s">
         <v>112</v>
@@ -30357,10 +30360,10 @@
         <v>3337</v>
       </c>
       <c r="C100" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="D100" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="E100">
         <v>2</v>
@@ -30513,10 +30516,10 @@
         <v>0</v>
       </c>
       <c r="BC100" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="BD100" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="BE100" t="s">
         <v>136</v>
@@ -30555,7 +30558,7 @@
         <v>1</v>
       </c>
       <c r="BQ100" s="11" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="BR100">
         <v>2007</v>
@@ -30564,7 +30567,7 @@
         <v>31</v>
       </c>
       <c r="BT100" s="1" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="BU100">
         <v>2007</v>
@@ -30621,7 +30624,7 @@
         <v>11</v>
       </c>
       <c r="CM100" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="CN100" t="s">
         <v>112</v>
@@ -30641,10 +30644,10 @@
         <v>3403</v>
       </c>
       <c r="C101" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="D101" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="E101">
         <v>3</v>
@@ -30785,7 +30788,7 @@
         <v>97</v>
       </c>
       <c r="AY101" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="AZ101" t="s">
         <v>97</v>
@@ -30830,16 +30833,16 @@
         <v>97</v>
       </c>
       <c r="BN101" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="BO101" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="BP101">
         <v>1</v>
       </c>
       <c r="BQ101" s="11" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="BR101">
         <v>2016</v>
@@ -30848,7 +30851,7 @@
         <v>23</v>
       </c>
       <c r="BT101" s="1" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="BU101">
         <v>2016</v>
@@ -30905,7 +30908,7 @@
         <v>8</v>
       </c>
       <c r="CM101" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="CN101" t="s">
         <v>112</v>
@@ -30928,13 +30931,13 @@
         <v>157</v>
       </c>
       <c r="D102" s="5" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="E102" s="5">
         <v>3</v>
       </c>
       <c r="F102" s="5" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="G102" s="5">
         <v>3.3</v>
@@ -31063,7 +31066,7 @@
         <v>0</v>
       </c>
       <c r="AW102" s="5" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="AX102" s="5" t="s">
         <v>97</v>
@@ -31072,7 +31075,7 @@
         <v>97</v>
       </c>
       <c r="AZ102" s="5" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="BA102" s="5" t="b">
         <v>1</v>
@@ -31114,16 +31117,16 @@
         <v>822</v>
       </c>
       <c r="BN102" s="5" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="BO102" s="5" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
       <c r="BP102" s="5" t="s">
         <v>97</v>
       </c>
       <c r="BQ102" s="13" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="BR102" s="5">
         <v>1966</v>
@@ -31132,7 +31135,7 @@
         <v>97</v>
       </c>
       <c r="BT102" s="6" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="BU102" s="5">
         <v>1968</v>
@@ -31189,7 +31192,7 @@
         <v>7</v>
       </c>
       <c r="CM102" s="5" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="CN102" s="5" t="s">
         <v>112</v>
@@ -31212,13 +31215,13 @@
         <v>157</v>
       </c>
       <c r="D103" s="5" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="E103" s="5">
         <v>3</v>
       </c>
       <c r="F103" s="5" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="G103" s="5">
         <v>1.3</v>
@@ -31347,7 +31350,7 @@
         <v>0</v>
       </c>
       <c r="AW103" s="5" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="AX103" s="5" t="s">
         <v>97</v>
@@ -31356,7 +31359,7 @@
         <v>97</v>
       </c>
       <c r="AZ103" s="5" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="BA103" s="5" t="b">
         <v>1</v>
@@ -31398,16 +31401,16 @@
         <v>1042</v>
       </c>
       <c r="BN103" s="5" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="BO103" s="5" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="BP103" s="5" t="s">
         <v>97</v>
       </c>
       <c r="BQ103" s="13" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="BR103" s="5">
         <v>1966</v>
@@ -31416,7 +31419,7 @@
         <v>97</v>
       </c>
       <c r="BT103" s="6" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="BU103" s="5">
         <v>1968</v>
@@ -31473,7 +31476,7 @@
         <v>8</v>
       </c>
       <c r="CM103" s="5" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="CN103" s="5" t="s">
         <v>112</v>
@@ -31496,13 +31499,13 @@
         <v>157</v>
       </c>
       <c r="D104" s="5" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="E104" s="5">
         <v>3</v>
       </c>
       <c r="F104" s="5" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="G104" s="5">
         <v>52</v>
@@ -31631,7 +31634,7 @@
         <v>0</v>
       </c>
       <c r="AW104" s="5" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="AX104" s="5" t="s">
         <v>97</v>
@@ -31640,7 +31643,7 @@
         <v>97</v>
       </c>
       <c r="AZ104" s="5" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="BA104" s="5" t="b">
         <v>1</v>
@@ -31682,16 +31685,16 @@
         <v>834</v>
       </c>
       <c r="BN104" s="5" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="BO104" s="5" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="BP104" s="5" t="s">
         <v>97</v>
       </c>
       <c r="BQ104" s="13" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="BR104" s="5">
         <v>1966</v>
@@ -31700,7 +31703,7 @@
         <v>97</v>
       </c>
       <c r="BT104" s="6" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="BU104" s="5">
         <v>1968</v>
@@ -31757,7 +31760,7 @@
         <v>9</v>
       </c>
       <c r="CM104" s="5" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="CN104" s="5" t="s">
         <v>112</v>
@@ -31770,13 +31773,21 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:CP104" xr:uid="{A31A6441-CD99-4B4F-BB66-1A1D2FE3CA96}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101000C02770DCAEC734E8EB73418E6EC8A3D" ma:contentTypeVersion="18" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="db22c4d88ecb756618ccd4befa361c40">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="8dc0456f-2036-4fc4-9de1-a80949446cb6" xmlns:ns3="012b7256-b6cf-40b6-b733-1f7ee20e4e65" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="dc8e7980d7a716b4a4ccd53b66e2b73d" ns2:_="" ns3:_="">
     <xsd:import namespace="8dc0456f-2036-4fc4-9de1-a80949446cb6"/>
@@ -32031,7 +32042,7 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <lcf76f155ced4ddcb4097134ff3c332f xmlns="8dc0456f-2036-4fc4-9de1-a80949446cb6">
@@ -32042,16 +32053,15 @@
 </p:properties>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0BC11DEB-8373-49E4-A8E0-3C6D09AA9165}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D149DF30-B76D-467B-BBD3-A5F6B2D5D8E2}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -32070,7 +32080,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{052BD201-954E-4B42-A252-3D5335691965}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -32079,12 +32089,4 @@
     <ds:schemaRef ds:uri="012b7256-b6cf-40b6-b733-1f7ee20e4e65"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0BC11DEB-8373-49E4-A8E0-3C6D09AA9165}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>